--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8957" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
   <si>
     <t>Editor:</t>
   </si>
@@ -514,65 +519,32 @@
     <t>F7</t>
   </si>
   <si>
-    <t>CN_07_13_CO_REC80_F1</t>
-  </si>
-  <si>
     <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/4/41/Electron_shell_017_Chlorine_(diatomic_nonmetal)_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_017_Chlorine_(diatomic_nonmetal)_-_no_label.svg&amp;h=1200&amp;w=1200&amp;tbnid=ZlR7oBOl82z8PM:&amp;zoom=1&amp;docid=Q_7be10KLSLprM&amp;ei=fMDrVJ3nDqmIsQStuoG4AQ&amp;tbm=isch&amp;ved=0CB4QMygAMAA</t>
   </si>
   <si>
-    <t>Diaporama</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F2</t>
-  </si>
-  <si>
-    <t>F03CN_07_13_CO_REC80_F3</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>CN_07_13_CO_REC80_F4</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F5</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F6</t>
-  </si>
-  <si>
     <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/0/04/Electron_shell_053_Iodine_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_053_Iodine_-_no_label.svg?uselang%3Dfi&amp;h=1600&amp;w=1600&amp;tbnid=zkAn6uyehFWAYM:&amp;zoom=1&amp;docid=SCy3MlyPwIliGM&amp;itg=1&amp;ei=h8DrVLrDOKrjsAS3uoLoDw&amp;tbm=isch&amp;ved=0CD0QMygZMBk</t>
   </si>
   <si>
-    <t>CN_07_13_CO_REC80_F7</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F8</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F9</t>
-  </si>
-  <si>
-    <t>CN_07_13_CO_REC80_F10</t>
-  </si>
-  <si>
     <t>Para instrucciones ver archivo de word en  &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
     <t>CN_07_13_REC80</t>
   </si>
   <si>
-    <t>Interativo</t>
+    <t>Ver observaciones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1758,6 +1730,609 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>30851</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>945251</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>33512</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38299</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>493106</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>382995</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>86174</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>47874</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>540980</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>392570</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>47874</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>52662</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>512255</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>397357</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>833014</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>483531</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>837801</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>713328</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>19150</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>866526</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>14362</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>4787</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>4787</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>234584</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2079,16 +2654,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -2106,7 +2681,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2118,7 +2693,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="78" t="s">
         <v>128</v>
@@ -2136,7 +2711,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="79" t="s">
         <v>7</v>
@@ -2152,7 +2727,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="79" t="s">
         <v>53</v>
@@ -2173,7 +2748,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="80" t="s">
         <v>0</v>
@@ -2195,7 +2770,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2208,13 +2783,13 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>38</v>
@@ -2227,7 +2802,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2247,7 +2822,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
         <v>1</v>
       </c>
@@ -2282,15 +2857,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="45.75" customHeight="1">
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>164</v>
+      <c r="C10" s="22" t="str">
+        <f t="shared" ref="C10:C26" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Recurso F7</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>144</v>
@@ -2298,7 +2874,7 @@
       <c r="E10" s="68"/>
       <c r="F10" s="9" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F1.jpg</v>
+        <v>CN_07_13_REC80_IMG01.jpg</v>
       </c>
       <c r="G10" s="9" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -2315,30 +2891,32 @@
       <c r="J10" s="68"/>
       <c r="K10" s="85"/>
     </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="66" t="s">
-        <v>151</v>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="str">
+        <f t="shared" ref="A11:A46" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1),MID(A10,4,2)+1)),"")</f>
+        <v>IMG02</v>
       </c>
       <c r="B11" s="67">
         <v>114023257</v>
       </c>
-      <c r="C11" s="68" t="s">
-        <v>164</v>
+      <c r="C11" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D11" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="9" t="str">
-        <f t="shared" ref="F11:F74" si="0">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F2.jpg</v>
+        <f t="shared" ref="F11:F74" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_07_13_REC80_IMG02.jpg</v>
       </c>
       <c r="G11" s="9" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="shared" ref="H11:H74" si="1">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H11:H74" si="3">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I11" s="9" t="str">
@@ -2348,28 +2926,32 @@
       <c r="J11" s="73"/>
       <c r="K11" s="85"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A12" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="68" t="s">
-        <v>164</v>
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG03</v>
+      </c>
+      <c r="B12" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_F03CN_07_13_CO_REC80_F3.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG03.jpg</v>
       </c>
       <c r="G12" s="9" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" s="9" t="str">
@@ -2377,34 +2959,36 @@
         <v/>
       </c>
       <c r="J12" s="86" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K12" s="85"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A13" s="66" t="s">
-        <v>154</v>
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG04</v>
       </c>
       <c r="B13" s="69">
         <v>113565910</v>
       </c>
-      <c r="C13" s="68" t="s">
-        <v>164</v>
+      <c r="C13" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F4.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG04.jpg</v>
       </c>
       <c r="G13" s="9" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I13" s="9" t="str">
@@ -2414,28 +2998,32 @@
       <c r="J13" s="74"/>
       <c r="K13" s="85"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="72" customHeight="1">
-      <c r="A14" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="68" t="s">
-        <v>164</v>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG05</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F5.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG05.jpg</v>
       </c>
       <c r="G14" s="9" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" s="9" t="str">
@@ -2443,34 +3031,36 @@
         <v/>
       </c>
       <c r="J14" s="86" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K14" s="85"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A15" s="66" t="s">
-        <v>156</v>
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="58.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG06</v>
       </c>
       <c r="B15" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>164</v>
+        <v>150</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D15" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F6.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG06.jpg</v>
       </c>
       <c r="G15" s="9" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H15" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="9" t="str">
@@ -2480,30 +3070,32 @@
       <c r="J15" s="73"/>
       <c r="K15" s="85"/>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="66" t="s">
-        <v>158</v>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG07</v>
       </c>
       <c r="B16" s="69">
         <v>114023257</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>164</v>
+      <c r="C16" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D16" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F7.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG07.jpg</v>
       </c>
       <c r="G16" s="9" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H16" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" s="9" t="str">
@@ -2513,28 +3105,32 @@
       <c r="J16" s="75"/>
       <c r="K16" s="85"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
-      <c r="A17" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="68" t="s">
-        <v>150</v>
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="81.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG08</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F8.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG08.jpg</v>
       </c>
       <c r="G17" s="9" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H17" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="9" t="str">
@@ -2542,34 +3138,36 @@
         <v/>
       </c>
       <c r="J17" s="86" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K17" s="85"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="66" t="s">
-        <v>160</v>
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG09</v>
       </c>
       <c r="B18" s="70">
         <v>113565910</v>
       </c>
-      <c r="C18" s="68" t="s">
-        <v>150</v>
+      <c r="C18" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D18" s="68" t="s">
         <v>144</v>
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F9.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG09.jpg</v>
       </c>
       <c r="G18" s="9" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H18" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" s="9" t="str">
@@ -2579,28 +3177,32 @@
       <c r="J18" s="76"/>
       <c r="K18" s="85"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
-      <c r="A19" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="68" t="s">
-        <v>150</v>
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="81.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>IMG10</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>Recurso F7</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>CN_07_13_REC80_CN_07_13_CO_REC80_F10.jpg</v>
+        <f t="shared" si="2"/>
+        <v>CN_07_13_REC80_IMG10.jpg</v>
       </c>
       <c r="G19" s="9" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>800 x 460 px</v>
       </c>
       <c r="H19" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I19" s="9" t="str">
@@ -2608,18 +3210,24 @@
         <v/>
       </c>
       <c r="J19" s="86" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K19" s="85"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B20" s="70"/>
-      <c r="C20" s="68"/>
+      <c r="C20" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
       <c r="F20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G20" s="9" t="str">
@@ -2627,7 +3235,7 @@
         <v/>
       </c>
       <c r="H20" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" s="9" t="str">
@@ -2637,14 +3245,20 @@
       <c r="J20" s="73"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B21" s="71"/>
-      <c r="C21" s="68"/>
+      <c r="C21" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
       <c r="F21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G21" s="9" t="str">
@@ -2652,7 +3266,7 @@
         <v/>
       </c>
       <c r="H21" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="9" t="str">
@@ -2662,14 +3276,20 @@
       <c r="J21" s="76"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B22" s="72"/>
-      <c r="C22" s="68"/>
+      <c r="C22" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D22" s="68"/>
       <c r="E22" s="68"/>
       <c r="F22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G22" s="9" t="str">
@@ -2677,7 +3297,7 @@
         <v/>
       </c>
       <c r="H22" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="9" t="str">
@@ -2687,14 +3307,20 @@
       <c r="J22" s="77"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B23" s="70"/>
-      <c r="C23" s="68"/>
+      <c r="C23" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
       <c r="F23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G23" s="9" t="str">
@@ -2702,7 +3328,7 @@
         <v/>
       </c>
       <c r="H23" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" s="9" t="str">
@@ -2712,14 +3338,20 @@
       <c r="J23" s="73"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
+      <c r="C24" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
       <c r="F24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G24" s="9" t="str">
@@ -2727,7 +3359,7 @@
         <v/>
       </c>
       <c r="H24" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" s="9" t="str">
@@ -2737,14 +3369,20 @@
       <c r="J24" s="68"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B25" s="70"/>
-      <c r="C25" s="68"/>
+      <c r="C25" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
       <c r="F25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G25" s="9" t="str">
@@ -2752,7 +3390,7 @@
         <v/>
       </c>
       <c r="H25" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I25" s="9" t="str">
@@ -2762,14 +3400,20 @@
       <c r="J25" s="68"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="B26" s="70"/>
-      <c r="C26" s="68"/>
+      <c r="C26" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
       <c r="F26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G26" s="9" t="str">
@@ -2777,7 +3421,7 @@
         <v/>
       </c>
       <c r="H26" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I26" s="9" t="str">
@@ -2787,20 +3431,20 @@
       <c r="J26" s="68"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1">
+    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="str">
-        <f t="shared" ref="A27:A83" si="2">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="22" t="str">
-        <f t="shared" ref="C27:C74" si="3">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C27:C74" si="4">IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G27" s="9" t="str">
@@ -2808,7 +3452,7 @@
         <v/>
       </c>
       <c r="H27" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I27" s="9" t="str">
@@ -2818,20 +3462,20 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1">
+    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G28" s="9" t="str">
@@ -2839,7 +3483,7 @@
         <v/>
       </c>
       <c r="H28" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" s="9" t="str">
@@ -2849,20 +3493,20 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1">
+    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G29" s="9" t="str">
@@ -2870,7 +3514,7 @@
         <v/>
       </c>
       <c r="H29" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="9" t="str">
@@ -2880,20 +3524,20 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1">
+    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="9" t="str">
@@ -2901,7 +3545,7 @@
         <v/>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" s="9" t="str">
@@ -2911,20 +3555,20 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1">
+    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="9" t="str">
@@ -2932,7 +3576,7 @@
         <v/>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" s="9" t="str">
@@ -2942,20 +3586,20 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1">
+    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="9" t="str">
@@ -2963,7 +3607,7 @@
         <v/>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I32" s="9" t="str">
@@ -2973,20 +3617,20 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1">
+    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G33" s="9" t="str">
@@ -2994,7 +3638,7 @@
         <v/>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="9" t="str">
@@ -3004,20 +3648,20 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="7" customFormat="1">
+    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="9" t="str">
@@ -3025,7 +3669,7 @@
         <v/>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I34" s="9" t="str">
@@ -3035,20 +3679,20 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1">
+    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="9" t="str">
@@ -3056,7 +3700,7 @@
         <v/>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I35" s="9" t="str">
@@ -3066,20 +3710,20 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" s="7" customFormat="1">
+    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="9" t="str">
@@ -3087,7 +3731,7 @@
         <v/>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I36" s="9" t="str">
@@ -3097,20 +3741,20 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" s="7" customFormat="1">
+    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="9" t="str">
@@ -3118,7 +3762,7 @@
         <v/>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" s="9" t="str">
@@ -3128,20 +3772,20 @@
       <c r="J37" s="17"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" s="7" customFormat="1">
+    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="9" t="str">
@@ -3149,7 +3793,7 @@
         <v/>
       </c>
       <c r="H38" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I38" s="9" t="str">
@@ -3159,20 +3803,20 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" s="7" customFormat="1">
+    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="9" t="str">
@@ -3180,7 +3824,7 @@
         <v/>
       </c>
       <c r="H39" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" s="9" t="str">
@@ -3190,20 +3834,20 @@
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" s="7" customFormat="1">
+    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" s="9" t="str">
@@ -3211,7 +3855,7 @@
         <v/>
       </c>
       <c r="H40" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I40" s="9" t="str">
@@ -3221,20 +3865,20 @@
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" s="7" customFormat="1">
+    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="9" t="str">
@@ -3242,7 +3886,7 @@
         <v/>
       </c>
       <c r="H41" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" s="9" t="str">
@@ -3252,20 +3896,20 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" s="7" customFormat="1">
+    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="9" t="str">
@@ -3273,7 +3917,7 @@
         <v/>
       </c>
       <c r="H42" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="9" t="str">
@@ -3283,20 +3927,20 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1">
+    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" s="9" t="str">
@@ -3304,7 +3948,7 @@
         <v/>
       </c>
       <c r="H43" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="9" t="str">
@@ -3314,20 +3958,20 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1">
+    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="9" t="str">
@@ -3335,7 +3979,7 @@
         <v/>
       </c>
       <c r="H44" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="9" t="str">
@@ -3345,20 +3989,20 @@
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1">
+    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" s="9" t="str">
@@ -3366,7 +4010,7 @@
         <v/>
       </c>
       <c r="H45" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" s="9" t="str">
@@ -3376,20 +4020,20 @@
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="7" customFormat="1">
+    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="9" t="str">
@@ -3397,7 +4041,7 @@
         <v/>
       </c>
       <c r="H46" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="9" t="str">
@@ -3407,20 +4051,20 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="7" customFormat="1">
+    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A27:A83" si="5">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(LEFT(A46,3),IF(MID(A46,4,2)+1&lt;10,CONCATENATE("0",MID(A46,4,2)+1),MID(A46,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" s="9" t="str">
@@ -3428,7 +4072,7 @@
         <v/>
       </c>
       <c r="H47" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="9" t="str">
@@ -3438,20 +4082,20 @@
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" s="7" customFormat="1">
+    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" s="9" t="str">
@@ -3459,7 +4103,7 @@
         <v/>
       </c>
       <c r="H48" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="9" t="str">
@@ -3469,20 +4113,20 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1">
+    <row r="49" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="9" t="str">
@@ -3490,7 +4134,7 @@
         <v/>
       </c>
       <c r="H49" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="9" t="str">
@@ -3500,20 +4144,20 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" s="7" customFormat="1">
+    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="9" t="str">
@@ -3521,7 +4165,7 @@
         <v/>
       </c>
       <c r="H50" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="9" t="str">
@@ -3531,20 +4175,20 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1">
+    <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="9" t="str">
@@ -3552,7 +4196,7 @@
         <v/>
       </c>
       <c r="H51" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="9" t="str">
@@ -3562,20 +4206,20 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" s="7" customFormat="1">
+    <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="9" t="str">
@@ -3583,7 +4227,7 @@
         <v/>
       </c>
       <c r="H52" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="9" t="str">
@@ -3593,20 +4237,20 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" s="7" customFormat="1">
+    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B53" s="8"/>
       <c r="C53" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="9" t="str">
@@ -3614,7 +4258,7 @@
         <v/>
       </c>
       <c r="H53" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="9" t="str">
@@ -3624,20 +4268,20 @@
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" s="7" customFormat="1">
+    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="9" t="str">
@@ -3645,7 +4289,7 @@
         <v/>
       </c>
       <c r="H54" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="9" t="str">
@@ -3655,20 +4299,20 @@
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" s="7" customFormat="1">
+    <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B55" s="8"/>
       <c r="C55" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="9" t="str">
@@ -3676,7 +4320,7 @@
         <v/>
       </c>
       <c r="H55" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I55" s="9" t="str">
@@ -3686,20 +4330,20 @@
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" s="7" customFormat="1">
+    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="9" t="str">
@@ -3707,7 +4351,7 @@
         <v/>
       </c>
       <c r="H56" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I56" s="9" t="str">
@@ -3717,20 +4361,20 @@
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" s="7" customFormat="1">
+    <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G57" s="9" t="str">
@@ -3738,7 +4382,7 @@
         <v/>
       </c>
       <c r="H57" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I57" s="9" t="str">
@@ -3748,20 +4392,20 @@
       <c r="J57" s="9"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" s="7" customFormat="1">
+    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G58" s="9" t="str">
@@ -3769,7 +4413,7 @@
         <v/>
       </c>
       <c r="H58" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I58" s="9" t="str">
@@ -3779,20 +4423,20 @@
       <c r="J58" s="9"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" s="7" customFormat="1">
+    <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G59" s="9" t="str">
@@ -3800,7 +4444,7 @@
         <v/>
       </c>
       <c r="H59" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I59" s="9" t="str">
@@ -3810,20 +4454,20 @@
       <c r="J59" s="9"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" s="7" customFormat="1">
+    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="9" t="str">
@@ -3831,7 +4475,7 @@
         <v/>
       </c>
       <c r="H60" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" s="9" t="str">
@@ -3841,20 +4485,20 @@
       <c r="J60" s="9"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" s="7" customFormat="1">
+    <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G61" s="9" t="str">
@@ -3862,7 +4506,7 @@
         <v/>
       </c>
       <c r="H61" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I61" s="9" t="str">
@@ -3872,20 +4516,20 @@
       <c r="J61" s="9"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" s="7" customFormat="1">
+    <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G62" s="9" t="str">
@@ -3893,7 +4537,7 @@
         <v/>
       </c>
       <c r="H62" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I62" s="9" t="str">
@@ -3903,20 +4547,20 @@
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" s="7" customFormat="1">
+    <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B63" s="8"/>
       <c r="C63" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G63" s="9" t="str">
@@ -3924,7 +4568,7 @@
         <v/>
       </c>
       <c r="H63" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I63" s="9" t="str">
@@ -3934,20 +4578,20 @@
       <c r="J63" s="9"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" s="7" customFormat="1">
+    <row r="64" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G64" s="9" t="str">
@@ -3955,7 +4599,7 @@
         <v/>
       </c>
       <c r="H64" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I64" s="9" t="str">
@@ -3965,20 +4609,20 @@
       <c r="J64" s="9"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" s="7" customFormat="1">
+    <row r="65" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="9" t="str">
@@ -3986,7 +4630,7 @@
         <v/>
       </c>
       <c r="H65" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I65" s="9" t="str">
@@ -3996,20 +4640,20 @@
       <c r="J65" s="9"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="7" customFormat="1">
+    <row r="66" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B66" s="8"/>
       <c r="C66" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G66" s="9" t="str">
@@ -4017,7 +4661,7 @@
         <v/>
       </c>
       <c r="H66" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="9" t="str">
@@ -4027,20 +4671,20 @@
       <c r="J66" s="9"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" s="7" customFormat="1">
+    <row r="67" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G67" s="9" t="str">
@@ -4048,7 +4692,7 @@
         <v/>
       </c>
       <c r="H67" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I67" s="9" t="str">
@@ -4058,20 +4702,20 @@
       <c r="J67" s="9"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="7" customFormat="1">
+    <row r="68" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G68" s="9" t="str">
@@ -4079,7 +4723,7 @@
         <v/>
       </c>
       <c r="H68" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I68" s="9" t="str">
@@ -4089,20 +4733,20 @@
       <c r="J68" s="9"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="7" customFormat="1">
+    <row r="69" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G69" s="9" t="str">
@@ -4110,7 +4754,7 @@
         <v/>
       </c>
       <c r="H69" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I69" s="9" t="str">
@@ -4120,20 +4764,20 @@
       <c r="J69" s="9"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" s="7" customFormat="1">
+    <row r="70" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B70" s="8"/>
       <c r="C70" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G70" s="9" t="str">
@@ -4141,7 +4785,7 @@
         <v/>
       </c>
       <c r="H70" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I70" s="9" t="str">
@@ -4151,20 +4795,20 @@
       <c r="J70" s="9"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" s="7" customFormat="1">
+    <row r="71" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="F71" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G71" s="9" t="str">
@@ -4172,7 +4816,7 @@
         <v/>
       </c>
       <c r="H71" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I71" s="9" t="str">
@@ -4182,20 +4826,20 @@
       <c r="J71" s="9"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" s="7" customFormat="1">
+    <row r="72" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G72" s="9" t="str">
@@ -4203,7 +4847,7 @@
         <v/>
       </c>
       <c r="H72" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I72" s="9" t="str">
@@ -4213,20 +4857,20 @@
       <c r="J72" s="9"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" s="7" customFormat="1">
+    <row r="73" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B73" s="8"/>
       <c r="C73" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G73" s="9" t="str">
@@ -4234,7 +4878,7 @@
         <v/>
       </c>
       <c r="H73" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I73" s="9" t="str">
@@ -4244,20 +4888,20 @@
       <c r="J73" s="9"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" s="7" customFormat="1">
+    <row r="74" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B74" s="8"/>
       <c r="C74" s="22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G74" s="9" t="str">
@@ -4265,7 +4909,7 @@
         <v/>
       </c>
       <c r="H74" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I74" s="9" t="str">
@@ -4275,20 +4919,20 @@
       <c r="J74" s="9"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" s="7" customFormat="1">
+    <row r="75" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B75" s="8"/>
       <c r="C75" s="22" t="str">
-        <f t="shared" ref="C75:C108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C75:C108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="7">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="9" t="str">
@@ -4296,7 +4940,7 @@
         <v/>
       </c>
       <c r="H75" s="9" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="8">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="9" t="str">
@@ -4306,20 +4950,20 @@
       <c r="J75" s="9"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" s="7" customFormat="1">
+    <row r="76" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B76" s="8"/>
       <c r="C76" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G76" s="9" t="str">
@@ -4327,7 +4971,7 @@
         <v/>
       </c>
       <c r="H76" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I76" s="9" t="str">
@@ -4337,20 +4981,20 @@
       <c r="J76" s="9"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" s="7" customFormat="1">
+    <row r="77" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G77" s="9" t="str">
@@ -4358,7 +5002,7 @@
         <v/>
       </c>
       <c r="H77" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I77" s="9" t="str">
@@ -4368,20 +5012,20 @@
       <c r="J77" s="9"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" s="7" customFormat="1">
+    <row r="78" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B78" s="8"/>
       <c r="C78" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G78" s="9" t="str">
@@ -4389,7 +5033,7 @@
         <v/>
       </c>
       <c r="H78" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I78" s="9" t="str">
@@ -4399,20 +5043,20 @@
       <c r="J78" s="9"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" s="7" customFormat="1">
+    <row r="79" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B79" s="8"/>
       <c r="C79" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G79" s="9" t="str">
@@ -4420,7 +5064,7 @@
         <v/>
       </c>
       <c r="H79" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I79" s="9" t="str">
@@ -4430,20 +5074,20 @@
       <c r="J79" s="9"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" s="7" customFormat="1">
+    <row r="80" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G80" s="9" t="str">
@@ -4451,7 +5095,7 @@
         <v/>
       </c>
       <c r="H80" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I80" s="9" t="str">
@@ -4461,20 +5105,20 @@
       <c r="J80" s="9"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" s="7" customFormat="1">
+    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
       <c r="F81" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G81" s="9" t="str">
@@ -4482,7 +5126,7 @@
         <v/>
       </c>
       <c r="H81" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I81" s="9" t="str">
@@ -4492,20 +5136,20 @@
       <c r="J81" s="9"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" s="7" customFormat="1">
+    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B82" s="8"/>
       <c r="C82" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G82" s="9" t="str">
@@ -4513,7 +5157,7 @@
         <v/>
       </c>
       <c r="H82" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I82" s="9" t="str">
@@ -4523,20 +5167,20 @@
       <c r="J82" s="9"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" s="7" customFormat="1">
+    <row r="83" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="B83" s="8"/>
       <c r="C83" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
       <c r="F83" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G83" s="9" t="str">
@@ -4544,7 +5188,7 @@
         <v/>
       </c>
       <c r="H83" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I83" s="9" t="str">
@@ -4554,20 +5198,20 @@
       <c r="J83" s="9"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" s="7" customFormat="1">
+    <row r="84" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="str">
-        <f t="shared" ref="A84:A108" si="7">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
+        <f t="shared" ref="A84:A108" si="9">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B84" s="8"/>
       <c r="C84" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
       <c r="F84" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G84" s="9" t="str">
@@ -4575,7 +5219,7 @@
         <v/>
       </c>
       <c r="H84" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I84" s="9" t="str">
@@ -4585,20 +5229,20 @@
       <c r="J84" s="9"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" s="7" customFormat="1">
+    <row r="85" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B85" s="8"/>
       <c r="C85" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G85" s="9" t="str">
@@ -4606,7 +5250,7 @@
         <v/>
       </c>
       <c r="H85" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I85" s="9" t="str">
@@ -4616,20 +5260,20 @@
       <c r="J85" s="9"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" s="7" customFormat="1">
+    <row r="86" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B86" s="8"/>
       <c r="C86" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
       <c r="F86" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G86" s="9" t="str">
@@ -4637,7 +5281,7 @@
         <v/>
       </c>
       <c r="H86" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I86" s="9" t="str">
@@ -4647,20 +5291,20 @@
       <c r="J86" s="9"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="7" customFormat="1">
+    <row r="87" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B87" s="8"/>
       <c r="C87" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G87" s="9" t="str">
@@ -4668,7 +5312,7 @@
         <v/>
       </c>
       <c r="H87" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I87" s="9" t="str">
@@ -4678,20 +5322,20 @@
       <c r="J87" s="9"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" s="7" customFormat="1">
+    <row r="88" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
       <c r="F88" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G88" s="9" t="str">
@@ -4699,7 +5343,7 @@
         <v/>
       </c>
       <c r="H88" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I88" s="9" t="str">
@@ -4709,20 +5353,20 @@
       <c r="J88" s="9"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" s="7" customFormat="1">
+    <row r="89" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B89" s="8"/>
       <c r="C89" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G89" s="9" t="str">
@@ -4730,7 +5374,7 @@
         <v/>
       </c>
       <c r="H89" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I89" s="9" t="str">
@@ -4740,20 +5384,20 @@
       <c r="J89" s="9"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="7" customFormat="1">
+    <row r="90" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B90" s="8"/>
       <c r="C90" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
       <c r="F90" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G90" s="9" t="str">
@@ -4761,7 +5405,7 @@
         <v/>
       </c>
       <c r="H90" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I90" s="9" t="str">
@@ -4771,20 +5415,20 @@
       <c r="J90" s="9"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="7" customFormat="1">
+    <row r="91" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B91" s="8"/>
       <c r="C91" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G91" s="9" t="str">
@@ -4792,7 +5436,7 @@
         <v/>
       </c>
       <c r="H91" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I91" s="9" t="str">
@@ -4802,20 +5446,20 @@
       <c r="J91" s="9"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" s="7" customFormat="1">
+    <row r="92" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B92" s="8"/>
       <c r="C92" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
       <c r="F92" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G92" s="9" t="str">
@@ -4823,7 +5467,7 @@
         <v/>
       </c>
       <c r="H92" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I92" s="9" t="str">
@@ -4833,20 +5477,20 @@
       <c r="J92" s="9"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" s="7" customFormat="1">
+    <row r="93" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B93" s="8"/>
       <c r="C93" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G93" s="9" t="str">
@@ -4854,7 +5498,7 @@
         <v/>
       </c>
       <c r="H93" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I93" s="9" t="str">
@@ -4864,20 +5508,20 @@
       <c r="J93" s="9"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" s="7" customFormat="1">
+    <row r="94" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
       <c r="F94" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G94" s="9" t="str">
@@ -4885,7 +5529,7 @@
         <v/>
       </c>
       <c r="H94" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I94" s="9" t="str">
@@ -4895,20 +5539,20 @@
       <c r="J94" s="9"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="7" customFormat="1">
+    <row r="95" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
       <c r="F95" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G95" s="9" t="str">
@@ -4916,7 +5560,7 @@
         <v/>
       </c>
       <c r="H95" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I95" s="9" t="str">
@@ -4926,20 +5570,20 @@
       <c r="J95" s="9"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" s="7" customFormat="1">
+    <row r="96" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B96" s="8"/>
       <c r="C96" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G96" s="9" t="str">
@@ -4947,7 +5591,7 @@
         <v/>
       </c>
       <c r="H96" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I96" s="9" t="str">
@@ -4957,20 +5601,20 @@
       <c r="J96" s="9"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" s="7" customFormat="1">
+    <row r="97" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B97" s="8"/>
       <c r="C97" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G97" s="9" t="str">
@@ -4978,7 +5622,7 @@
         <v/>
       </c>
       <c r="H97" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I97" s="9" t="str">
@@ -4988,20 +5632,20 @@
       <c r="J97" s="9"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="7" customFormat="1">
+    <row r="98" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B98" s="8"/>
       <c r="C98" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
       <c r="F98" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G98" s="9" t="str">
@@ -5009,7 +5653,7 @@
         <v/>
       </c>
       <c r="H98" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I98" s="9" t="str">
@@ -5019,20 +5663,20 @@
       <c r="J98" s="9"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" s="7" customFormat="1">
+    <row r="99" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B99" s="8"/>
       <c r="C99" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
       <c r="F99" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G99" s="9" t="str">
@@ -5040,7 +5684,7 @@
         <v/>
       </c>
       <c r="H99" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I99" s="9" t="str">
@@ -5050,20 +5694,20 @@
       <c r="J99" s="9"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" s="7" customFormat="1">
+    <row r="100" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B100" s="8"/>
       <c r="C100" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G100" s="9" t="str">
@@ -5071,7 +5715,7 @@
         <v/>
       </c>
       <c r="H100" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I100" s="9" t="str">
@@ -5081,20 +5725,20 @@
       <c r="J100" s="9"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" s="7" customFormat="1">
+    <row r="101" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B101" s="8"/>
       <c r="C101" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
       <c r="F101" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G101" s="9" t="str">
@@ -5102,7 +5746,7 @@
         <v/>
       </c>
       <c r="H101" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I101" s="9" t="str">
@@ -5112,20 +5756,20 @@
       <c r="J101" s="9"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" s="7" customFormat="1">
+    <row r="102" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G102" s="9" t="str">
@@ -5133,7 +5777,7 @@
         <v/>
       </c>
       <c r="H102" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I102" s="9" t="str">
@@ -5143,20 +5787,20 @@
       <c r="J102" s="9"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" s="7" customFormat="1">
+    <row r="103" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G103" s="9" t="str">
@@ -5164,7 +5808,7 @@
         <v/>
       </c>
       <c r="H103" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I103" s="9" t="str">
@@ -5174,20 +5818,20 @@
       <c r="J103" s="9"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" s="7" customFormat="1">
+    <row r="104" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G104" s="9" t="str">
@@ -5195,7 +5839,7 @@
         <v/>
       </c>
       <c r="H104" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I104" s="9" t="str">
@@ -5205,20 +5849,20 @@
       <c r="J104" s="9"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" s="7" customFormat="1">
+    <row r="105" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G105" s="9" t="str">
@@ -5226,7 +5870,7 @@
         <v/>
       </c>
       <c r="H105" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I105" s="9" t="str">
@@ -5236,20 +5880,20 @@
       <c r="J105" s="9"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" s="7" customFormat="1">
+    <row r="106" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G106" s="9" t="str">
@@ -5257,7 +5901,7 @@
         <v/>
       </c>
       <c r="H106" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I106" s="9" t="str">
@@ -5267,20 +5911,20 @@
       <c r="J106" s="9"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" s="7" customFormat="1">
+    <row r="107" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G107" s="9" t="str">
@@ -5288,7 +5932,7 @@
         <v/>
       </c>
       <c r="H107" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I107" s="9" t="str">
@@ -5298,20 +5942,20 @@
       <c r="J107" s="9"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" s="7" customFormat="1">
+    <row r="108" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
       <c r="F108" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="G108" s="9" t="str">
@@ -5319,7 +5963,7 @@
         <v/>
       </c>
       <c r="H108" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I108" s="9" t="str">
@@ -5365,7 +6009,7 @@
       <formula>$G$4="Recurso"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
@@ -5388,21 +6032,115 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C26">
-      <formula1>"Cuaderno de Estudio,Ejercicio Genérico,Interativo,Diaporama"</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B15" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/0/04/Electron_shell_053_Iodine_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_053_Iodine_-_no_label.svg?uselang%3Dfi&amp;h=1600&amp;w=1600&amp;tbnid=zkAn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId4"/>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId5"/>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId6"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38299</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>19150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>952699</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>703753</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>33512</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38299</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>493106</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>382995</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>86174</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>47874</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>540980</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>392570</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47874</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>52662</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>512255</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>397357</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5413,7 +6151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5421,7 +6159,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="72.25" style="24" customWidth="1"/>
     <col min="2" max="2" width="11" style="24"/>
@@ -5432,7 +6170,7 @@
     <col min="12" max="16384" width="11" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
@@ -5442,7 +6180,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="104"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>41</v>
       </c>
@@ -5454,7 +6192,7 @@
       <c r="E2" s="107"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A3" s="35" t="s">
         <v>42</v>
       </c>
@@ -5478,7 +6216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
@@ -5506,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>44</v>
       </c>
@@ -5533,7 +6271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
@@ -5555,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
@@ -5582,7 +6320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
@@ -5601,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
       <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
@@ -5620,7 +6358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
@@ -5639,7 +6377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="I11" s="24" t="s">
         <v>31</v>
       </c>
@@ -5650,7 +6388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="24" t="s">
         <v>36</v>
       </c>
@@ -5661,7 +6399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="102" t="s">
         <v>40</v>
       </c>
@@ -5680,7 +6418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="35"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -5697,7 +6435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="32" t="s">
         <v>45</v>
       </c>
@@ -5715,7 +6453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="35" t="s">
         <v>46</v>
       </c>
@@ -5739,7 +6477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="32" t="s">
         <v>43</v>
       </c>
@@ -5760,7 +6498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="35" t="s">
         <v>47</v>
       </c>
@@ -5781,7 +6519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="32" t="s">
         <v>9</v>
       </c>
@@ -5800,7 +6538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36" t="s">
         <v>50</v>
       </c>
@@ -5822,7 +6560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H21" s="24" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5839,122 +6577,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K22" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K23" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K24" s="24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K25" s="24">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K26" s="24">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K27" s="24">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K28" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K29" s="24">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K30" s="24">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K31" s="24">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="K32" s="24">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K33" s="24">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K34" s="24">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K35" s="24">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K36" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K37" s="24">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K38" s="24">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K39" s="24">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K40" s="24">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K41" s="24">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K42" s="24">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K43" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K44" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
       <c r="K45" s="24" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5974,12 +6712,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>483531</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>713328</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>4787</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>234584</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5987,7 +6886,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21" style="24" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
@@ -6003,7 +6902,7 @@
     <col min="12" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A1" s="116" t="s">
         <v>55</v>
       </c>
@@ -6031,7 +6930,7 @@
       <c r="I1" s="117"/>
       <c r="J1" s="117"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="116"/>
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
@@ -6049,7 +6948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="45" customFormat="1">
+    <row r="3" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="44" t="s">
         <v>68</v>
       </c>
@@ -6073,7 +6972,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:11" s="45" customFormat="1">
+    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="46" t="s">
         <v>56</v>
       </c>
@@ -6101,7 +7000,7 @@
       </c>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" spans="1:11" s="45" customFormat="1">
+    <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="47" t="s">
         <v>76</v>
       </c>
@@ -6129,7 +7028,7 @@
       </c>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" s="45" customFormat="1">
+    <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
@@ -6161,7 +7060,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="45" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A7" s="46" t="s">
         <v>79</v>
       </c>
@@ -6189,7 +7088,7 @@
       </c>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" spans="1:11" s="45" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A8" s="46" t="s">
         <v>81</v>
       </c>
@@ -6217,7 +7116,7 @@
       </c>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:11" s="45" customFormat="1">
+    <row r="9" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A9" s="46" t="s">
         <v>83</v>
       </c>
@@ -6245,7 +7144,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:11" s="45" customFormat="1">
+    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A10" s="46" t="s">
         <v>85</v>
       </c>
@@ -6271,7 +7170,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:11" s="45" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A11" s="46" t="s">
         <v>88</v>
       </c>
@@ -6299,7 +7198,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:11" s="45" customFormat="1">
+    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A12" s="46" t="s">
         <v>90</v>
       </c>
@@ -6327,7 +7226,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A13" s="49" t="s">
         <v>92</v>
       </c>
@@ -6354,7 +7253,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="49" t="s">
         <v>96</v>
       </c>
@@ -6378,7 +7277,7 @@
       </c>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A15" s="49" t="s">
         <v>98</v>
       </c>
@@ -6405,7 +7304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
       <c r="A16" s="51" t="s">
         <v>102</v>
       </c>
@@ -6434,7 +7333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
       <c r="A17" s="46" t="s">
         <v>105</v>
       </c>
@@ -6463,12 +7362,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="56" t="s">
         <v>112</v>
       </c>
@@ -6481,7 +7380,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="59" t="s">
         <v>113</v>
       </c>
@@ -6494,7 +7393,7 @@
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="59" t="s">
         <v>114</v>
       </c>
@@ -6507,7 +7406,7 @@
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
       <c r="A24" s="59" t="s">
         <v>115</v>
       </c>
@@ -6520,7 +7419,7 @@
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="59" t="s">
         <v>116</v>
       </c>
@@ -6533,7 +7432,7 @@
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
       <c r="A26" s="59" t="s">
         <v>117</v>
       </c>

--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado07\guion13\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19203" windowHeight="8957" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="940" windowWidth="36200" windowHeight="18460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="156">
   <si>
     <t>Editor:</t>
   </si>
@@ -536,6 +531,15 @@
   <si>
     <t>Ver observaciones</t>
   </si>
+  <si>
+    <t>Credito:Pumbaa (original work by Greg Robson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credito: 
+    Electron_shell_053_Iodine.svg: Pumbaa (original work by Greg Robson)
+    derivative work: Kizar
+</t>
+  </si>
 </sst>
 </file>
 
@@ -544,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -700,6 +704,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -952,11 +961,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -965,7 +974,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -973,17 +982,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -993,7 +1002,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1001,12 +1010,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,18 +1024,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,11 +1065,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1070,10 +1079,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1083,7 +1092,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1157,16 +1166,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1174,28 +1183,28 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1251,8 +1260,14 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1570,8 +1585,11 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="58">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1623,6 +1641,12 @@
     <cellStyle name="Hipervínculo visitado" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1715,7 +1739,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1737,15 +1761,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>30851</xdr:colOff>
+          <xdr:colOff>42333</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28725</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>945251</xdr:colOff>
+          <xdr:colOff>969433</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>723900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1758,7 +1782,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1766,17 +1790,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1789,15 +1802,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>33512</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>38299</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>493106</xdr:colOff>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>382995</xdr:rowOff>
+          <xdr:rowOff>381000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1810,7 +1823,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1818,17 +1831,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1841,15 +1843,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>86174</xdr:colOff>
+          <xdr:colOff>88900</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>47874</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>540980</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>392570</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1862,7 +1864,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1870,17 +1872,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1893,15 +1884,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>47874</xdr:colOff>
+          <xdr:colOff>50800</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>52662</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>512255</xdr:colOff>
+          <xdr:colOff>508000</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>397357</xdr:rowOff>
+          <xdr:rowOff>393700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1914,7 +1905,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1922,17 +1913,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1952,13 +1932,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019724</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1971,7 +1951,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1979,20 +1959,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2005,15 +1971,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>833014</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2026,7 +1992,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2034,20 +2000,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2060,15 +2012,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2081,7 +2033,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2089,20 +2041,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2115,15 +2053,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2136,7 +2074,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2144,20 +2082,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2170,15 +2094,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19150</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038873</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2191,7 +2115,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2199,20 +2123,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2225,15 +2135,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1048448</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866526</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2246,7 +2156,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2254,20 +2164,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2280,15 +2176,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>14362</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>4787</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>4787</xdr:colOff>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>234584</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2301,7 +2197,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2309,20 +2205,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2655,33 +2537,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="12" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2693,7 +2575,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="78" t="s">
         <v>128</v>
@@ -2711,7 +2593,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="79" t="s">
         <v>7</v>
@@ -2727,7 +2609,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="79" t="s">
         <v>53</v>
@@ -2748,7 +2630,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="80" t="s">
         <v>0</v>
@@ -2770,7 +2652,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2783,7 +2665,7 @@
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="26" t="s">
         <v>39</v>
@@ -2802,7 +2684,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="16.25" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2822,7 +2704,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.05" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="27" thickBot="1">
       <c r="A9" s="23" t="s">
         <v>1</v>
       </c>
@@ -2857,7 +2739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="76" customHeight="1">
       <c r="A10" s="66" t="s">
         <v>141</v>
       </c>
@@ -2889,9 +2771,11 @@
         <v/>
       </c>
       <c r="J10" s="68"/>
-      <c r="K10" s="85"/>
-    </row>
-    <row r="11" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="7" customFormat="1" ht="54" customHeight="1">
       <c r="A11" s="8" t="str">
         <f t="shared" ref="A11:A46" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1),MID(A10,4,2)+1)),"")</f>
         <v>IMG02</v>
@@ -2926,7 +2810,7 @@
       <c r="J11" s="73"/>
       <c r="K11" s="85"/>
     </row>
-    <row r="12" spans="1:16" s="7" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="88.5" customHeight="1">
       <c r="A12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG03</v>
@@ -2963,7 +2847,7 @@
       </c>
       <c r="K12" s="85"/>
     </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG04</v>
@@ -2998,7 +2882,7 @@
       <c r="J13" s="74"/>
       <c r="K13" s="85"/>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="72" customHeight="1">
       <c r="A14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG05</v>
@@ -3035,7 +2919,7 @@
       </c>
       <c r="K14" s="85"/>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="58.55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="58.5" customHeight="1">
       <c r="A15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG06</v>
@@ -3068,9 +2952,11 @@
         <v/>
       </c>
       <c r="J15" s="73"/>
-      <c r="K15" s="85"/>
-    </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="118" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG07</v>
@@ -3105,7 +2991,7 @@
       <c r="J16" s="75"/>
       <c r="K16" s="85"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" ht="81.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
       <c r="A17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG08</v>
@@ -3142,7 +3028,7 @@
       </c>
       <c r="K17" s="85"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" s="7" customFormat="1" ht="41" customHeight="1">
       <c r="A18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG09</v>
@@ -3177,7 +3063,7 @@
       <c r="J18" s="76"/>
       <c r="K18" s="85"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1" ht="81.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
       <c r="A19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG10</v>
@@ -3214,7 +3100,7 @@
       </c>
       <c r="K19" s="85"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3245,7 +3131,7 @@
       <c r="J20" s="73"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3276,7 +3162,7 @@
       <c r="J21" s="76"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3307,7 +3193,7 @@
       <c r="J22" s="77"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3338,7 +3224,7 @@
       <c r="J23" s="73"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3369,7 +3255,7 @@
       <c r="J24" s="68"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3400,7 +3286,7 @@
       <c r="J25" s="68"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3431,7 +3317,7 @@
       <c r="J26" s="68"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A27" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3462,7 +3348,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A28" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3493,7 +3379,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A29" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3524,7 +3410,7 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A30" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3555,7 +3441,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A31" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3586,7 +3472,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3617,7 +3503,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A33" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3648,7 +3534,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3679,7 +3565,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3710,7 +3596,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A36" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3741,7 +3627,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A37" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3772,7 +3658,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A38" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3803,7 +3689,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A39" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3834,7 +3720,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3865,7 +3751,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A41" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3896,7 +3782,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3927,7 +3813,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A43" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3958,7 +3844,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3989,7 +3875,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A45" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4020,7 +3906,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A46" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4051,9 +3937,9 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A47" s="8" t="str">
-        <f t="shared" ref="A27:A83" si="5">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(LEFT(A46,3),IF(MID(A46,4,2)+1&lt;10,CONCATENATE("0",MID(A46,4,2)+1),MID(A46,4,2)+1)),"")</f>
+        <f t="shared" ref="A47:A83" si="5">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(LEFT(A46,3),IF(MID(A46,4,2)+1&lt;10,CONCATENATE("0",MID(A46,4,2)+1),MID(A46,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B47" s="8"/>
@@ -4082,7 +3968,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A48" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4113,7 +3999,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A49" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4144,7 +4030,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A50" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4175,7 +4061,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A51" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4206,7 +4092,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A52" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4237,7 +4123,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A53" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4268,7 +4154,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A54" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4299,7 +4185,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A55" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4330,7 +4216,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A56" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4361,7 +4247,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A57" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4392,7 +4278,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A58" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4423,7 +4309,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A59" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4454,7 +4340,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A60" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4485,7 +4371,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A61" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4516,7 +4402,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A62" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4547,7 +4433,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A63" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4578,7 +4464,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A64" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4609,7 +4495,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A65" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4640,7 +4526,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A66" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4671,7 +4557,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A67" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4702,7 +4588,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A68" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4733,7 +4619,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A69" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4764,7 +4650,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A70" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4795,7 +4681,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A71" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4826,7 +4712,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A72" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4857,7 +4743,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A73" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4888,7 +4774,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A74" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4919,7 +4805,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A75" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4950,7 +4836,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A76" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4981,7 +4867,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A77" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5012,7 +4898,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A78" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5043,7 +4929,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A79" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5074,7 +4960,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A80" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5105,7 +4991,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A81" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5136,7 +5022,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A82" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5167,7 +5053,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A83" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5198,7 +5084,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A84" s="8" t="str">
         <f t="shared" ref="A84:A108" si="9">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5229,7 +5115,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A85" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5260,7 +5146,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A86" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5291,7 +5177,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A87" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5322,7 +5208,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A88" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5353,7 +5239,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A89" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5384,7 +5270,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A90" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5415,7 +5301,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A91" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5446,7 +5332,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A92" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5477,7 +5363,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A93" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5508,7 +5394,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A94" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5539,7 +5425,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A95" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5570,7 +5456,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A96" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5601,7 +5487,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A97" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5632,7 +5518,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A98" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5663,7 +5549,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A99" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5694,7 +5580,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A100" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5725,7 +5611,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A101" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5756,7 +5642,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A102" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5787,7 +5673,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A103" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5818,7 +5704,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A104" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5849,7 +5735,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A105" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5880,7 +5766,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A106" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5911,7 +5797,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A107" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5942,7 +5828,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="7" customFormat="1" ht="15">
       <c r="A108" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -6037,108 +5923,108 @@
     <hyperlink ref="B15" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/0/04/Electron_shell_053_Iodine_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_053_Iodine_-_no_label.svg?uselang%3Dfi&amp;h=1600&amp;w=1600&amp;tbnid=zkAn"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>38299</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>19150</xdr:rowOff>
+                <xdr:rowOff>25400</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>952699</xdr:colOff>
+                <xdr:colOff>965200</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>703753</xdr:rowOff>
+                <xdr:rowOff>723900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId4"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>33512</xdr:colOff>
+                <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>38299</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>493106</xdr:colOff>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>382995</xdr:rowOff>
+                <xdr:rowOff>381000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId6"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>86174</xdr:colOff>
+                <xdr:colOff>88900</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>47874</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>540980</xdr:colOff>
+                <xdr:colOff>546100</xdr:colOff>
                 <xdr:row>16</xdr:row>
-                <xdr:rowOff>392570</xdr:rowOff>
+                <xdr:rowOff>393700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId8"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId7">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>47874</xdr:colOff>
+                <xdr:colOff>50800</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>52662</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>512255</xdr:colOff>
+                <xdr:colOff>508000</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>397357</xdr:rowOff>
+                <xdr:rowOff>393700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId9"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6152,25 +6038,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11" style="24"/>
-    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="24" customWidth="1"/>
-    <col min="5" max="7" width="11" style="24"/>
+    <col min="1" max="1" width="72.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="24"/>
+    <col min="3" max="3" width="13.83203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="24" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="24"/>
     <col min="8" max="11" width="11" style="24" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="24"/>
+    <col min="12" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
@@ -6180,7 +6066,7 @@
       <c r="E1" s="103"/>
       <c r="F1" s="104"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="32" t="s">
         <v>41</v>
       </c>
@@ -6192,7 +6078,7 @@
       <c r="E2" s="107"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="63.25">
       <c r="A3" s="35" t="s">
         <v>42</v>
       </c>
@@ -6216,7 +6102,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="31.75">
       <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
@@ -6244,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="35" t="s">
         <v>44</v>
       </c>
@@ -6271,7 +6157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="32" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
@@ -6293,7 +6179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="32" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
@@ -6320,7 +6206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="47.5">
       <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
@@ -6339,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="47.5">
       <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
@@ -6358,7 +6244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="32" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
@@ -6377,7 +6263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="I11" s="24" t="s">
         <v>31</v>
       </c>
@@ -6388,7 +6274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1">
       <c r="I12" s="24" t="s">
         <v>36</v>
       </c>
@@ -6399,7 +6285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11">
       <c r="A13" s="102" t="s">
         <v>40</v>
       </c>
@@ -6418,7 +6304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1">
       <c r="A14" s="35"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -6435,7 +6321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="32" t="s">
         <v>45</v>
       </c>
@@ -6453,7 +6339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.2" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="35" t="s">
         <v>46</v>
       </c>
@@ -6477,7 +6363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="32.25" customHeight="1" thickBot="1">
       <c r="A17" s="32" t="s">
         <v>43</v>
       </c>
@@ -6498,7 +6384,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="35" t="s">
         <v>47</v>
       </c>
@@ -6519,7 +6405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="32" t="s">
         <v>9</v>
       </c>
@@ -6538,7 +6424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>50</v>
       </c>
@@ -6560,7 +6446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="H21" s="24" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6577,122 +6463,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="K22" s="24">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="K23" s="24">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11">
       <c r="K24" s="24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="K25" s="24">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11">
       <c r="K26" s="24">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11">
       <c r="K27" s="24">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11">
       <c r="K28" s="24">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11">
       <c r="K29" s="24">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11">
       <c r="K30" s="24">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11">
       <c r="K31" s="24">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11">
       <c r="K32" s="24">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:11">
       <c r="K33" s="24">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="11:11">
       <c r="K34" s="24">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="11:11">
       <c r="K35" s="24">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="11:11">
       <c r="K36" s="24">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="11:11">
       <c r="K37" s="24">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="11:11">
       <c r="K38" s="24">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="11:11">
       <c r="K39" s="24">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="11:11">
       <c r="K40" s="24">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="11:11">
       <c r="K41" s="24">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="11:11">
       <c r="K42" s="24">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="11:11">
       <c r="K43" s="24">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="11:11">
       <c r="K44" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="11:11">
       <c r="K45" s="24" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6711,169 +6597,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019724</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>833014</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19150</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038873</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1048448</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866526</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>4787</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>4787</xdr:colOff>
+                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>234584</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6886,23 +6785,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="24" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="24"/>
-    <col min="5" max="5" width="11.75" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="24"/>
+    <col min="5" max="5" width="11.6640625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="24" customWidth="1"/>
     <col min="7" max="7" width="11" style="24" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="24" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="24" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="24" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="24" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="24" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="24"/>
+    <col min="12" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11">
       <c r="A1" s="116" t="s">
         <v>55</v>
       </c>
@@ -6930,7 +6829,7 @@
       <c r="I1" s="117"/>
       <c r="J1" s="117"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11">
       <c r="A2" s="116"/>
       <c r="B2" s="116"/>
       <c r="C2" s="116"/>
@@ -6948,7 +6847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" s="45" customFormat="1">
       <c r="A3" s="44" t="s">
         <v>68</v>
       </c>
@@ -6972,7 +6871,7 @@
       <c r="I3" s="44"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" s="45" customFormat="1">
       <c r="A4" s="46" t="s">
         <v>56</v>
       </c>
@@ -7000,7 +6899,7 @@
       </c>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" s="45" customFormat="1">
       <c r="A5" s="47" t="s">
         <v>76</v>
       </c>
@@ -7028,7 +6927,7 @@
       </c>
       <c r="J5" s="48"/>
     </row>
-    <row r="6" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" s="45" customFormat="1">
       <c r="A6" s="46" t="s">
         <v>57</v>
       </c>
@@ -7060,7 +6959,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="45" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="26.5">
       <c r="A7" s="46" t="s">
         <v>79</v>
       </c>
@@ -7088,7 +6987,7 @@
       </c>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" s="45" customFormat="1">
       <c r="A8" s="46" t="s">
         <v>81</v>
       </c>
@@ -7116,7 +7015,7 @@
       </c>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" s="45" customFormat="1">
       <c r="A9" s="46" t="s">
         <v>83</v>
       </c>
@@ -7144,7 +7043,7 @@
       </c>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" s="45" customFormat="1">
       <c r="A10" s="46" t="s">
         <v>85</v>
       </c>
@@ -7170,7 +7069,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:11" s="45" customFormat="1" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="26.5">
       <c r="A11" s="46" t="s">
         <v>88</v>
       </c>
@@ -7198,7 +7097,7 @@
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" s="45" customFormat="1">
       <c r="A12" s="46" t="s">
         <v>90</v>
       </c>
@@ -7226,7 +7125,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" ht="63.25">
       <c r="A13" s="49" t="s">
         <v>92</v>
       </c>
@@ -7253,7 +7152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11">
       <c r="A14" s="49" t="s">
         <v>96</v>
       </c>
@@ -7277,7 +7176,7 @@
       </c>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" ht="31.75">
       <c r="A15" s="49" t="s">
         <v>98</v>
       </c>
@@ -7304,7 +7203,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="95">
       <c r="A16" s="51" t="s">
         <v>102</v>
       </c>
@@ -7333,7 +7232,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="26.5">
       <c r="A17" s="46" t="s">
         <v>105</v>
       </c>
@@ -7362,12 +7261,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11">
       <c r="A20" s="55" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="A21" s="56" t="s">
         <v>112</v>
       </c>
@@ -7380,7 +7279,7 @@
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="A22" s="59" t="s">
         <v>113</v>
       </c>
@@ -7393,7 +7292,7 @@
       <c r="D22" s="60"/>
       <c r="E22" s="60"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="A23" s="59" t="s">
         <v>114</v>
       </c>
@@ -7406,7 +7305,7 @@
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" ht="31.75">
       <c r="A24" s="59" t="s">
         <v>115</v>
       </c>
@@ -7419,7 +7318,7 @@
       <c r="D24" s="60"/>
       <c r="E24" s="60"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="A25" s="59" t="s">
         <v>116</v>
       </c>
@@ -7432,7 +7331,7 @@
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" ht="63.25">
       <c r="A26" s="59" t="s">
         <v>117</v>
       </c>
@@ -7458,5 +7357,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
+++ b/fuentes/contenidos/grado07/guion13/SolicitudGrafica_CN_07_13_CO_REC_80.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="153">
   <si>
     <t>Editor:</t>
   </si>
@@ -514,15 +514,9 @@
     <t>F7</t>
   </si>
   <si>
-    <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/4/41/Electron_shell_017_Chlorine_(diatomic_nonmetal)_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_017_Chlorine_(diatomic_nonmetal)_-_no_label.svg&amp;h=1200&amp;w=1200&amp;tbnid=ZlR7oBOl82z8PM:&amp;zoom=1&amp;docid=Q_7be10KLSLprM&amp;ei=fMDrVJ3nDqmIsQStuoG4AQ&amp;tbm=isch&amp;ved=0CB4QMygAMAA</t>
-  </si>
-  <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/0/04/Electron_shell_053_Iodine_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_053_Iodine_-_no_label.svg?uselang%3Dfi&amp;h=1600&amp;w=1600&amp;tbnid=zkAn6uyehFWAYM:&amp;zoom=1&amp;docid=SCy3MlyPwIliGM&amp;itg=1&amp;ei=h8DrVLrDOKrjsAS3uoLoDw&amp;tbm=isch&amp;ved=0CD0QMygZMBk</t>
-  </si>
-  <si>
     <t>Para instrucciones ver archivo de word en  &gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
@@ -532,13 +526,7 @@
     <t>Ver observaciones</t>
   </si>
   <si>
-    <t>Credito:Pumbaa (original work by Greg Robson)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credito: 
-    Electron_shell_053_Iodine.svg: Pumbaa (original work by Greg Robson)
-    derivative work: Kizar
-</t>
+    <t> 152409926</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1192,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1266,6 +1254,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1492,14 +1483,14 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1585,11 +1576,9 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="51" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="61">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1647,6 +1636,9 @@
     <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1761,13 +1753,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>42333</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>25400</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>969433</xdr:colOff>
+          <xdr:colOff>965200</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>723900</xdr:rowOff>
         </xdr:to>
@@ -2542,7 +2534,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2563,7 +2555,7 @@
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2575,7 +2567,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="78" t="s">
         <v>128</v>
@@ -2593,7 +2585,7 @@
       <c r="I2" s="42"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="79" t="s">
         <v>7</v>
@@ -2609,7 +2601,7 @@
       <c r="I3" s="42"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="79" t="s">
         <v>53</v>
@@ -2630,7 +2622,7 @@
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1">
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="80" t="s">
         <v>0</v>
@@ -2652,7 +2644,7 @@
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1">
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2671,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>38</v>
@@ -2684,7 +2676,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="4" customFormat="1" ht="16.25" thickBot="1">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2743,8 +2735,8 @@
       <c r="A10" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>148</v>
+      <c r="B10" s="118" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="22" t="str">
         <f t="shared" ref="C10:C26" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -2771,9 +2763,7 @@
         <v/>
       </c>
       <c r="J10" s="68"/>
-      <c r="K10" s="54" t="s">
-        <v>154</v>
-      </c>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:16" s="7" customFormat="1" ht="54" customHeight="1">
       <c r="A11" s="8" t="str">
@@ -2808,7 +2798,7 @@
         <v/>
       </c>
       <c r="J11" s="73"/>
-      <c r="K11" s="85"/>
+      <c r="K11" s="84"/>
     </row>
     <row r="12" spans="1:16" s="7" customFormat="1" ht="88.5" customHeight="1">
       <c r="A12" s="8" t="str">
@@ -2816,14 +2806,14 @@
         <v>IMG03</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="9" t="str">
@@ -2842,10 +2832,10 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J12" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="85"/>
+      <c r="J12" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K12" s="84"/>
     </row>
     <row r="13" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="str">
@@ -2880,7 +2870,7 @@
         <v/>
       </c>
       <c r="J13" s="74"/>
-      <c r="K13" s="85"/>
+      <c r="K13" s="84"/>
     </row>
     <row r="14" spans="1:16" s="7" customFormat="1" ht="72" customHeight="1">
       <c r="A14" s="8" t="str">
@@ -2888,14 +2878,14 @@
         <v>IMG05</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="9" t="str">
@@ -2914,18 +2904,18 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J14" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" s="85"/>
+      <c r="J14" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="84"/>
     </row>
     <row r="15" spans="1:16" s="7" customFormat="1" ht="58.5" customHeight="1">
       <c r="A15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>150</v>
+      <c r="B15" s="118">
+        <v>152409974</v>
       </c>
       <c r="C15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -2952,9 +2942,7 @@
         <v/>
       </c>
       <c r="J15" s="73"/>
-      <c r="K15" s="118" t="s">
-        <v>155</v>
-      </c>
+      <c r="K15" s="86"/>
     </row>
     <row r="16" spans="1:16" s="7" customFormat="1" ht="42" customHeight="1">
       <c r="A16" s="8" t="str">
@@ -2989,7 +2977,7 @@
         <v/>
       </c>
       <c r="J16" s="75"/>
-      <c r="K16" s="85"/>
+      <c r="K16" s="84"/>
     </row>
     <row r="17" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
       <c r="A17" s="8" t="str">
@@ -2997,14 +2985,14 @@
         <v>IMG08</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C17" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7</v>
       </c>
       <c r="D17" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="9" t="str">
@@ -3023,10 +3011,10 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J17" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="85"/>
+      <c r="J17" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" s="7" customFormat="1" ht="41" customHeight="1">
       <c r="A18" s="8" t="str">
@@ -3061,7 +3049,7 @@
         <v/>
       </c>
       <c r="J18" s="76"/>
-      <c r="K18" s="85"/>
+      <c r="K18" s="84"/>
     </row>
     <row r="19" spans="1:11" s="7" customFormat="1" ht="81" customHeight="1">
       <c r="A19" s="8" t="str">
@@ -3069,14 +3057,14 @@
         <v>IMG10</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C19" s="22" t="str">
         <f t="shared" si="0"/>
         <v>Recurso F7</v>
       </c>
       <c r="D19" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="9" t="str">
@@ -3095,10 +3083,10 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="86" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="85"/>
+      <c r="J19" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" s="84"/>
     </row>
     <row r="20" spans="1:11" s="7" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="str">
@@ -3317,7 +3305,7 @@
       <c r="J26" s="68"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="27" spans="1:11" s="7" customFormat="1">
       <c r="A27" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3348,7 +3336,7 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="28" spans="1:11" s="7" customFormat="1">
       <c r="A28" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3379,7 +3367,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="29" spans="1:11" s="7" customFormat="1">
       <c r="A29" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3410,7 +3398,7 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="30" spans="1:11" s="7" customFormat="1">
       <c r="A30" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3441,7 +3429,7 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="31" spans="1:11" s="7" customFormat="1">
       <c r="A31" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3472,7 +3460,7 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="32" spans="1:11" s="7" customFormat="1">
       <c r="A32" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3503,7 +3491,7 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="33" spans="1:11" s="7" customFormat="1">
       <c r="A33" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3534,7 +3522,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="34" spans="1:11" s="7" customFormat="1">
       <c r="A34" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3565,7 +3553,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="35" spans="1:11" s="7" customFormat="1">
       <c r="A35" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3596,7 +3584,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="10"/>
     </row>
-    <row r="36" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="36" spans="1:11" s="7" customFormat="1">
       <c r="A36" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3627,7 +3615,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="10"/>
     </row>
-    <row r="37" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="37" spans="1:11" s="7" customFormat="1">
       <c r="A37" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3658,7 +3646,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="10"/>
     </row>
-    <row r="38" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="38" spans="1:11" s="7" customFormat="1">
       <c r="A38" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3689,7 +3677,7 @@
       <c r="J38" s="18"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="39" spans="1:11" s="7" customFormat="1">
       <c r="A39" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3720,7 +3708,7 @@
       <c r="J39" s="9"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="40" spans="1:11" s="7" customFormat="1">
       <c r="A40" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3751,7 +3739,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="41" spans="1:11" s="7" customFormat="1">
       <c r="A41" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3782,7 +3770,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="42" spans="1:11" s="7" customFormat="1">
       <c r="A42" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3813,7 +3801,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="43" spans="1:11" s="7" customFormat="1">
       <c r="A43" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3844,7 +3832,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="44" spans="1:11" s="7" customFormat="1">
       <c r="A44" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3875,7 +3863,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="45" spans="1:11" s="7" customFormat="1">
       <c r="A45" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3906,7 +3894,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="46" spans="1:11" s="7" customFormat="1">
       <c r="A46" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3937,7 +3925,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="47" spans="1:11" s="7" customFormat="1">
       <c r="A47" s="8" t="str">
         <f t="shared" ref="A47:A83" si="5">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(LEFT(A46,3),IF(MID(A46,4,2)+1&lt;10,CONCATENATE("0",MID(A46,4,2)+1),MID(A46,4,2)+1)),"")</f>
         <v/>
@@ -3968,7 +3956,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="48" spans="1:11" s="7" customFormat="1">
       <c r="A48" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3999,7 +3987,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="7" customFormat="1">
       <c r="A49" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4030,7 +4018,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="50" spans="1:11" s="7" customFormat="1">
       <c r="A50" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4061,7 +4049,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="51" spans="1:11" s="7" customFormat="1">
       <c r="A51" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4092,7 +4080,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="52" spans="1:11" s="7" customFormat="1">
       <c r="A52" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4123,7 +4111,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="53" spans="1:11" s="7" customFormat="1">
       <c r="A53" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4154,7 +4142,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="54" spans="1:11" s="7" customFormat="1">
       <c r="A54" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4185,7 +4173,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="55" spans="1:11" s="7" customFormat="1">
       <c r="A55" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4216,7 +4204,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="56" spans="1:11" s="7" customFormat="1">
       <c r="A56" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4247,7 +4235,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="57" spans="1:11" s="7" customFormat="1">
       <c r="A57" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4278,7 +4266,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="58" spans="1:11" s="7" customFormat="1">
       <c r="A58" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4309,7 +4297,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="59" spans="1:11" s="7" customFormat="1">
       <c r="A59" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4340,7 +4328,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="60" spans="1:11" s="7" customFormat="1">
       <c r="A60" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4371,7 +4359,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="61" spans="1:11" s="7" customFormat="1">
       <c r="A61" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4402,7 +4390,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="62" spans="1:11" s="7" customFormat="1">
       <c r="A62" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4433,7 +4421,7 @@
       <c r="J62" s="9"/>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="63" spans="1:11" s="7" customFormat="1">
       <c r="A63" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4464,7 +4452,7 @@
       <c r="J63" s="9"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="64" spans="1:11" s="7" customFormat="1">
       <c r="A64" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4495,7 +4483,7 @@
       <c r="J64" s="9"/>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="65" spans="1:11" s="7" customFormat="1">
       <c r="A65" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4526,7 +4514,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="66" spans="1:11" s="7" customFormat="1">
       <c r="A66" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4557,7 +4545,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="67" spans="1:11" s="7" customFormat="1">
       <c r="A67" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4588,7 +4576,7 @@
       <c r="J67" s="9"/>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="68" spans="1:11" s="7" customFormat="1">
       <c r="A68" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4619,7 +4607,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="69" spans="1:11" s="7" customFormat="1">
       <c r="A69" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4650,7 +4638,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="70" spans="1:11" s="7" customFormat="1">
       <c r="A70" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4681,7 +4669,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="71" spans="1:11" s="7" customFormat="1">
       <c r="A71" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4712,7 +4700,7 @@
       <c r="J71" s="9"/>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="72" spans="1:11" s="7" customFormat="1">
       <c r="A72" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4743,7 +4731,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="73" spans="1:11" s="7" customFormat="1">
       <c r="A73" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4774,7 +4762,7 @@
       <c r="J73" s="9"/>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="74" spans="1:11" s="7" customFormat="1">
       <c r="A74" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4805,7 +4793,7 @@
       <c r="J74" s="9"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="75" spans="1:11" s="7" customFormat="1">
       <c r="A75" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4836,7 +4824,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="76" spans="1:11" s="7" customFormat="1">
       <c r="A76" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4867,7 +4855,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="77" spans="1:11" s="7" customFormat="1">
       <c r="A77" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4898,7 +4886,7 @@
       <c r="J77" s="9"/>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="78" spans="1:11" s="7" customFormat="1">
       <c r="A78" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4929,7 +4917,7 @@
       <c r="J78" s="9"/>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="79" spans="1:11" s="7" customFormat="1">
       <c r="A79" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4960,7 +4948,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="80" spans="1:11" s="7" customFormat="1">
       <c r="A80" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4991,7 +4979,7 @@
       <c r="J80" s="9"/>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="81" spans="1:11" s="7" customFormat="1">
       <c r="A81" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5022,7 +5010,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="82" spans="1:11" s="7" customFormat="1">
       <c r="A82" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5053,7 +5041,7 @@
       <c r="J82" s="9"/>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="83" spans="1:11" s="7" customFormat="1">
       <c r="A83" s="8" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5084,7 +5072,7 @@
       <c r="J83" s="9"/>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="84" spans="1:11" s="7" customFormat="1">
       <c r="A84" s="8" t="str">
         <f t="shared" ref="A84:A108" si="9">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5115,7 +5103,7 @@
       <c r="J84" s="9"/>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="85" spans="1:11" s="7" customFormat="1">
       <c r="A85" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5146,7 +5134,7 @@
       <c r="J85" s="9"/>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="86" spans="1:11" s="7" customFormat="1">
       <c r="A86" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5177,7 +5165,7 @@
       <c r="J86" s="9"/>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="87" spans="1:11" s="7" customFormat="1">
       <c r="A87" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5208,7 +5196,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="88" spans="1:11" s="7" customFormat="1">
       <c r="A88" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5239,7 +5227,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="89" spans="1:11" s="7" customFormat="1">
       <c r="A89" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5270,7 +5258,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="90" spans="1:11" s="7" customFormat="1">
       <c r="A90" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5301,7 +5289,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="91" spans="1:11" s="7" customFormat="1">
       <c r="A91" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5332,7 +5320,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="92" spans="1:11" s="7" customFormat="1">
       <c r="A92" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5363,7 +5351,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="93" spans="1:11" s="7" customFormat="1">
       <c r="A93" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5394,7 +5382,7 @@
       <c r="J93" s="9"/>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="94" spans="1:11" s="7" customFormat="1">
       <c r="A94" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5425,7 +5413,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="95" spans="1:11" s="7" customFormat="1">
       <c r="A95" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5456,7 +5444,7 @@
       <c r="J95" s="9"/>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="96" spans="1:11" s="7" customFormat="1">
       <c r="A96" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5487,7 +5475,7 @@
       <c r="J96" s="9"/>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="97" spans="1:11" s="7" customFormat="1">
       <c r="A97" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5518,7 +5506,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="98" spans="1:11" s="7" customFormat="1">
       <c r="A98" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5549,7 +5537,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="99" spans="1:11" s="7" customFormat="1">
       <c r="A99" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5580,7 +5568,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="10"/>
     </row>
-    <row r="100" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="100" spans="1:11" s="7" customFormat="1">
       <c r="A100" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5611,7 +5599,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="101" spans="1:11" s="7" customFormat="1">
       <c r="A101" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5642,7 +5630,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="102" spans="1:11" s="7" customFormat="1">
       <c r="A102" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5673,7 +5661,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="10"/>
     </row>
-    <row r="103" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="103" spans="1:11" s="7" customFormat="1">
       <c r="A103" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5704,7 +5692,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="10"/>
     </row>
-    <row r="104" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="104" spans="1:11" s="7" customFormat="1">
       <c r="A104" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5735,7 +5723,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="10"/>
     </row>
-    <row r="105" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="105" spans="1:11" s="7" customFormat="1">
       <c r="A105" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5766,7 +5754,7 @@
       <c r="J105" s="9"/>
       <c r="K105" s="10"/>
     </row>
-    <row r="106" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="106" spans="1:11" s="7" customFormat="1">
       <c r="A106" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5797,7 +5785,7 @@
       <c r="J106" s="9"/>
       <c r="K106" s="10"/>
     </row>
-    <row r="107" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="107" spans="1:11" s="7" customFormat="1">
       <c r="A107" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5828,7 +5816,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="10"/>
     </row>
-    <row r="108" spans="1:11" s="7" customFormat="1" ht="15">
+    <row r="108" spans="1:11" s="7" customFormat="1">
       <c r="A108" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5920,17 +5908,18 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B15" display="http://www.google.com/imgres?imgurl=http://upload.wikimedia.org/wikipedia/commons/0/04/Electron_shell_053_Iodine_-_no_label.svg&amp;imgrefurl=http://commons.wikimedia.org/wiki/File:Electron_shell_053_Iodine_-_no_label.svg?uselang%3Dfi&amp;h=1600&amp;w=1600&amp;tbnid=zkAn"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B15" r:id="rId2" display="http://www.shutterstock.com/pic-152409974/stock-vector-illustration-of-the-element-iodine.html?src=jPGDQb9HfC7eFB1ljOm4yg-1-1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -5949,13 +5938,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId5">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -5974,13 +5963,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId5"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId9">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -5999,13 +5988,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId7"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2052" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId8">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId6">
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -6024,7 +6013,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId8"/>
+        <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2053" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -6056,7 +6045,7 @@
     <col min="12" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
@@ -6078,7 +6067,7 @@
       <c r="E2" s="107"/>
       <c r="F2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="63.25">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="35" t="s">
         <v>42</v>
       </c>
@@ -6102,7 +6091,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.75">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="32" t="s">
         <v>43</v>
       </c>
@@ -6130,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="35" t="s">
         <v>44</v>
       </c>
@@ -6157,7 +6146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32" thickBot="1">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
@@ -6179,7 +6168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" thickBot="1">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="35" t="s">
         <v>10</v>
       </c>
@@ -6206,7 +6195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="35" t="s">
         <v>52</v>
       </c>
@@ -6225,7 +6214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="35" t="s">
         <v>11</v>
       </c>
@@ -6244,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32" thickBot="1">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="36" t="s">
         <v>35</v>
       </c>
@@ -6274,7 +6263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="24" t="s">
         <v>36</v>
       </c>
@@ -6304,7 +6293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="35"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -6384,7 +6373,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="35" t="s">
         <v>47</v>
       </c>
@@ -6424,7 +6413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="36" t="s">
         <v>50</v>
       </c>
@@ -6959,7 +6948,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="45" customFormat="1" ht="26.5">
+    <row r="7" spans="1:11" s="45" customFormat="1" ht="28">
       <c r="A7" s="46" t="s">
         <v>79</v>
       </c>
@@ -6987,7 +6976,7 @@
       </c>
       <c r="J7" s="46"/>
     </row>
-    <row r="8" spans="1:11" s="45" customFormat="1">
+    <row r="8" spans="1:11" s="45" customFormat="1" ht="28">
       <c r="A8" s="46" t="s">
         <v>81</v>
       </c>
@@ -7069,7 +7058,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="1:11" s="45" customFormat="1" ht="26.5">
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="28">
       <c r="A11" s="46" t="s">
         <v>88</v>
       </c>
@@ -7125,7 +7114,7 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="1:11" ht="63.25">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="49" t="s">
         <v>92</v>
       </c>
@@ -7176,7 +7165,7 @@
       </c>
       <c r="J14" s="49"/>
     </row>
-    <row r="15" spans="1:11" ht="31.75">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="49" t="s">
         <v>98</v>
       </c>
@@ -7203,7 +7192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="95">
+    <row r="16" spans="1:11" ht="90">
       <c r="A16" s="51" t="s">
         <v>102</v>
       </c>
@@ -7232,7 +7221,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5">
+    <row r="17" spans="1:11" ht="28">
       <c r="A17" s="46" t="s">
         <v>105</v>
       </c>
@@ -7305,7 +7294,7 @@
       <c r="D23" s="60"/>
       <c r="E23" s="60"/>
     </row>
-    <row r="24" spans="1:11" ht="31.75">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="59" t="s">
         <v>115</v>
       </c>
@@ -7331,7 +7320,7 @@
       <c r="D25" s="60"/>
       <c r="E25" s="60"/>
     </row>
-    <row r="26" spans="1:11" ht="63.25">
+    <row r="26" spans="1:11" ht="60">
       <c r="A26" s="59" t="s">
         <v>117</v>
       </c>
